--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1438632.359468311</v>
+        <v>1437027.94154198</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12870947.58233101</v>
+        <v>12870947.582331</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9380888.145747764</v>
+        <v>9380888.145747766</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.945525966093</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736199</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443238</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>150.1422380741579</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212906</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014344</v>
+        <v>2.316733491734403</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078954</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200254</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247974</v>
+        <v>38.74486795247967</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092814</v>
+        <v>44.92018329092807</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725115</v>
+        <v>19.65674986725108</v>
       </c>
       <c r="E12" t="n">
-        <v>29.85676475801334</v>
+        <v>29.85676475801327</v>
       </c>
       <c r="F12" t="n">
-        <v>73.09235831426435</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577421</v>
+        <v>8.06243522757735</v>
       </c>
       <c r="H12" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.12670030601734</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>52.9970527858724</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9556929504599</v>
+        <v>16.16737725307226</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1478331994369</v>
+        <v>171.8627438551088</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843948</v>
+        <v>98.05485807843941</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520377</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W12" t="n">
-        <v>123.906667463532</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608987</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991676</v>
+        <v>77.89438007991669</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454969</v>
+        <v>52.04366448454962</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124023</v>
+        <v>39.45850540124016</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082475</v>
+        <v>20.82715732082468</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918157</v>
+        <v>18.6456469491815</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554364</v>
+        <v>17.63273232554357</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219398</v>
+        <v>38.95117859219391</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403486</v>
+        <v>23.31201683403479</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015234</v>
+        <v>74.41831073015229</v>
       </c>
       <c r="T13" t="n">
-        <v>94.8100193456914</v>
+        <v>94.81001934569133</v>
       </c>
       <c r="U13" t="n">
         <v>158.4624508371645</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164955</v>
+        <v>97.92133969164948</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470719</v>
+        <v>90.79633765470712</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.945525966093</v>
+        <v>154.8935999630175</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358286</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274269</v>
+        <v>183.1136930274268</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212896</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078955</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>62.14154243749771</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200255</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247982</v>
+        <v>38.74486795247962</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>44.92018329092802</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725124</v>
+        <v>19.65674986725104</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801343</v>
+        <v>29.85676475801323</v>
       </c>
       <c r="F15" t="n">
-        <v>126.0894111001351</v>
+        <v>17.28089669599616</v>
       </c>
       <c r="G15" t="n">
-        <v>135.850750924965</v>
+        <v>8.062435227577307</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307243</v>
+        <v>16.16737725307223</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204937</v>
+        <v>66.35951750204917</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843957</v>
+        <v>206.8633724825799</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520378</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W15" t="n">
-        <v>123.9066674635321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608996</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991684</v>
+        <v>77.89438007991664</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454978</v>
+        <v>52.04366448454958</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124032</v>
+        <v>39.45850540124012</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082484</v>
+        <v>20.82715732082464</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918165</v>
+        <v>18.64564694918145</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554373</v>
+        <v>17.63273232554353</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219406</v>
+        <v>38.95117859219386</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403494</v>
+        <v>23.31201683403474</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015244</v>
+        <v>74.41831073015224</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569149</v>
+        <v>94.81001934569129</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371646</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264405</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392035</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164964</v>
+        <v>97.92133969164944</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470727</v>
+        <v>90.79633765470707</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064065</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G17" t="n">
         <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774048</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.19398614820895</v>
+        <v>8.193986148209035</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306095</v>
       </c>
       <c r="W17" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989795</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>28.11433652551562</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.766514103845566</v>
+        <v>216.7426368534765</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.7920863791751</v>
+        <v>139.7920863791748</v>
       </c>
       <c r="U19" t="n">
-        <v>43.3222974774781</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266753962</v>
+        <v>9.209174266754047</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951705</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064065</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G20" t="n">
-        <v>169.584297176142</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H20" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148209063</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306176</v>
       </c>
       <c r="W20" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989816</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>17.26367255540641</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>82.23119486920137</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>8.76651410384568</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1143838566532</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266753962</v>
+        <v>149.0012606459288</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064065</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139335</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636089</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151877</v>
+        <v>139.0019010151879</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846374</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G23" t="n">
-        <v>169.584297176142</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H23" t="n">
-        <v>67.9735396677404</v>
+        <v>67.97353966774051</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148208937</v>
+        <v>8.193986148209063</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306087</v>
+        <v>84.82378941306098</v>
       </c>
       <c r="W23" t="n">
-        <v>106.312499660339</v>
+        <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.802631621395</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989795</v>
+        <v>143.3094695989797</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>132.6935934993568</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>174.8157055260407</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.3222974774781</v>
+        <v>43.32229747747821</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266753962</v>
+        <v>9.209174266754076</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951696</v>
+        <v>43.59452927951708</v>
       </c>
       <c r="X25" t="n">
-        <v>139.7920863791751</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.593688303794</v>
+        <v>267.5936883037943</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113209</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609963</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125752</v>
+        <v>266.7902167125755</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820248</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735295</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651278</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983006</v>
+        <v>30.30344563983039</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784444</v>
+        <v>95.74259691784476</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455964</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104483</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577264</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187824</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.097785296367</v>
+        <v>271.0977852963673</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>51.39303029018106</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862913</v>
+        <v>57.56834562862946</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495215</v>
+        <v>32.30491220495247</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571434</v>
+        <v>42.50492709571466</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369727</v>
+        <v>29.9290590336976</v>
       </c>
       <c r="G27" t="n">
-        <v>20.71059756527842</v>
+        <v>20.71059756527874</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077334</v>
+        <v>96.31273332100695</v>
       </c>
       <c r="T27" t="n">
-        <v>79.00767983975028</v>
+        <v>79.00767983975061</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161405</v>
+        <v>110.7030204161408</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897387</v>
+        <v>117.660433789739</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>158.1300255740277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.54254241761775</v>
+        <v>90.54254241761808</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225069</v>
+        <v>64.69182682225102</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894123</v>
+        <v>52.10666773894155</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852575</v>
+        <v>33.47531965852608</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688256</v>
+        <v>31.29380928688289</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324464</v>
+        <v>30.28089466324496</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989497</v>
+        <v>51.5993409298953</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173585</v>
+        <v>35.96017917173618</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405337934</v>
+        <v>2.674752405338261</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.88191846596898</v>
+        <v>5.881918465969306</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785335</v>
+        <v>87.06647306785368</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833924</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748655</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641414</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769044</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293505</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924082</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037939</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113209</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609963</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125751</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820248</v>
+        <v>291.735892382025</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735294</v>
+        <v>297.3726128735297</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651278</v>
+        <v>195.761855365128</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983</v>
+        <v>30.30344563983028</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784437</v>
+        <v>95.74259691784465</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455963</v>
+        <v>135.9823018455966</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104482</v>
+        <v>212.6121051104485</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577263</v>
+        <v>234.1008153577266</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187824</v>
+        <v>254.5909473187826</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963669</v>
+        <v>271.0977852963672</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018066</v>
+        <v>51.39303029018095</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862906</v>
+        <v>57.56834562862934</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>32.30491220495236</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0021208259519</v>
+        <v>42.50492709571455</v>
       </c>
       <c r="F30" t="n">
-        <v>29.9290590336972</v>
+        <v>29.92905903369748</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527834</v>
+        <v>88.207791295513</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077327</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975021</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U30" t="n">
-        <v>110.7030204161404</v>
+        <v>110.7030204161407</v>
       </c>
       <c r="V30" t="n">
-        <v>117.6604337897386</v>
+        <v>117.6604337897389</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012332</v>
       </c>
       <c r="X30" t="n">
-        <v>90.6328318437908</v>
+        <v>90.63283184379108</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761768</v>
+        <v>90.54254241761797</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225062</v>
+        <v>64.6918268222509</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894116</v>
+        <v>52.10666773894144</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852568</v>
+        <v>33.47531965852596</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688249</v>
+        <v>31.29380928688278</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324457</v>
+        <v>30.28089466324485</v>
       </c>
       <c r="G31" t="n">
-        <v>51.5993409298949</v>
+        <v>51.59934092989518</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173578</v>
+        <v>35.96017917173607</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405337863</v>
+        <v>2.674752405338147</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465968909</v>
+        <v>5.881918465969193</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785328</v>
+        <v>87.06647306785356</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833923</v>
+        <v>107.4581816833926</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748654</v>
+        <v>171.1106131748657</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641413</v>
+        <v>136.9974899641416</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769043</v>
+        <v>171.3828449769046</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293505</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924081</v>
+        <v>103.4444999924084</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.593688303794</v>
+        <v>267.5936883037942</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113209</v>
+        <v>250.1327384113212</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609963</v>
+        <v>239.5428882609966</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125752</v>
+        <v>266.7902167125754</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820248</v>
+        <v>291.7358923820251</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735295</v>
+        <v>297.3726128735298</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651278</v>
+        <v>195.7618553651281</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983004</v>
+        <v>30.30344563983036</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784442</v>
+        <v>95.74259691784474</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455964</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104483</v>
+        <v>212.6121051104486</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577264</v>
+        <v>234.1008153577267</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187824</v>
+        <v>254.5909473187827</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.097785296367</v>
+        <v>271.0977852963673</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.39303029018072</v>
+        <v>51.39303029018103</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862912</v>
+        <v>57.56834562862943</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495213</v>
+        <v>32.30491220495244</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571432</v>
+        <v>42.50492709571463</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369726</v>
+        <v>29.92905903369757</v>
       </c>
       <c r="G33" t="n">
-        <v>20.7105975652784</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077332</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T33" t="n">
-        <v>79.00767983975027</v>
+        <v>79.00767983975058</v>
       </c>
       <c r="U33" t="n">
-        <v>178.2002141463778</v>
+        <v>178.2002141463744</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>117.660433789739</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012333</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379085</v>
+        <v>90.63283184379117</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761774</v>
+        <v>90.54254241761805</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225068</v>
+        <v>64.69182682225099</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894121</v>
+        <v>52.10666773894152</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852573</v>
+        <v>33.47531965852605</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688255</v>
+        <v>31.29380928688286</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324462</v>
+        <v>30.28089466324494</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989496</v>
+        <v>51.59934092989527</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173584</v>
+        <v>35.96017917173615</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405337919</v>
+        <v>2.674752405338232</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465968965</v>
+        <v>5.881918465969278</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785334</v>
+        <v>87.06647306785365</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833924</v>
+        <v>107.4581816833927</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748655</v>
+        <v>171.1106131748658</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641414</v>
+        <v>136.9974899641417</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769044</v>
+        <v>171.3828449769047</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293505</v>
+        <v>110.5695020293508</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924082</v>
+        <v>103.4444999924085</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111301</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199113</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808656</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246394</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293248</v>
+        <v>31.16496715293291</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177844</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261185</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.31082490015287</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8431737758271</v>
+        <v>56.69970463767076</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728502</v>
+        <v>2.640846990728928</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220163</v>
+        <v>66.29327848220206</v>
       </c>
       <c r="V37" t="n">
-        <v>94.6662843090668</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W37" t="n">
-        <v>66.5655102842405</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686654</v>
+        <v>68.2382963742743</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111301</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199113</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893609</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808656</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246394</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293248</v>
+        <v>31.16496715293292</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177844</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650625</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261185</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.12047975306633</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>181.4663117507017</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477009</v>
       </c>
       <c r="V39" t="n">
-        <v>12.84309909707477</v>
+        <v>12.8430990970752</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856953</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.48612903758936</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.48612903758725</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728502</v>
+        <v>2.640846990728928</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220163</v>
+        <v>66.29327848220206</v>
       </c>
       <c r="V40" t="n">
-        <v>32.1801552714775</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W40" t="n">
-        <v>66.5655102842405</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686654</v>
+        <v>5.75216733668708</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199114</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F41" t="n">
-        <v>186.918557689361</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808657</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246402</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293257</v>
+        <v>31.16496715293291</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177845</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650626</v>
+        <v>129.2834806650639</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261186</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037032</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>34.68185573849577</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>5.640113698240681</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723476668</v>
+        <v>5.885685723477009</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970752</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.48612903758891</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728587</v>
+        <v>2.640846990728928</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220171</v>
+        <v>128.7794075197893</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147759</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424059</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686739</v>
+        <v>5.75216733668708</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683326</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808657</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246459</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293265</v>
+        <v>31.16496715293313</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261187</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.885685723476753</v>
+        <v>189.957922175375</v>
       </c>
       <c r="V45" t="n">
-        <v>176.3308183248718</v>
+        <v>12.84309909707542</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856928</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.12697602831717</v>
+        <v>2.640846990729155</v>
       </c>
       <c r="U46" t="n">
-        <v>66.2932784822018</v>
+        <v>128.7794075197884</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147767</v>
+        <v>32.18015527147816</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424067</v>
+        <v>66.56551028424116</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336686824</v>
+        <v>5.752167336687307</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>718.8019616789132</v>
+        <v>939.2696656242265</v>
       </c>
       <c r="C11" t="n">
-        <v>718.8019616789132</v>
+        <v>699.3862554488529</v>
       </c>
       <c r="D11" t="n">
-        <v>718.8019616789132</v>
+        <v>470.1996636071405</v>
       </c>
       <c r="E11" t="n">
-        <v>462.092815845707</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="F11" t="n">
-        <v>180.1860178211375</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="G11" t="n">
-        <v>180.1860178211375</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="H11" t="n">
         <v>28.52719148360423</v>
@@ -5039,19 +5039,19 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006792</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634141</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838413</v>
       </c>
       <c r="M11" t="n">
         <v>676.595713496534</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893064</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5060,31 +5060,31 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.525954683111</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T11" t="n">
-        <v>1324.592182379936</v>
+        <v>1424.019439340076</v>
       </c>
       <c r="U11" t="n">
-        <v>1200.012243483073</v>
+        <v>1424.019439340076</v>
       </c>
       <c r="V11" t="n">
-        <v>1200.012243483073</v>
+        <v>1424.019439340076</v>
       </c>
       <c r="W11" t="n">
-        <v>976.3226949779971</v>
+        <v>1200.329890835</v>
       </c>
       <c r="X11" t="n">
-        <v>976.3226949779971</v>
+        <v>1200.329890835</v>
       </c>
       <c r="Y11" t="n">
-        <v>976.3226949779971</v>
+        <v>939.2696656242265</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.6958344117285</v>
+        <v>327.2060256686254</v>
       </c>
       <c r="C12" t="n">
-        <v>259.3219118956395</v>
+        <v>281.8321031525365</v>
       </c>
       <c r="D12" t="n">
-        <v>239.4666089994262</v>
+        <v>261.9768002563233</v>
       </c>
       <c r="E12" t="n">
-        <v>209.3082607590086</v>
+        <v>231.8184520159058</v>
       </c>
       <c r="F12" t="n">
-        <v>135.4775957951053</v>
+        <v>85.28389404279079</v>
       </c>
       <c r="G12" t="n">
-        <v>127.3337218278553</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360423</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I12" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197359</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K12" t="n">
         <v>144.7567744385589</v>
@@ -5127,10 +5127,10 @@
         <v>328.4668801148409</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654395</v>
+        <v>562.2047765654394</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420151</v>
+        <v>816.5376645420149</v>
       </c>
       <c r="O12" t="n">
         <v>1026.98277387907</v>
@@ -5142,28 +5142,28 @@
         <v>1226.613302561491</v>
       </c>
       <c r="R12" t="n">
-        <v>1173.080926010105</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S12" t="n">
-        <v>1027.671135151054</v>
+        <v>1156.750241916092</v>
       </c>
       <c r="T12" t="n">
-        <v>831.5622127273805</v>
+        <v>983.1515107493153</v>
       </c>
       <c r="U12" t="n">
-        <v>732.5169015370376</v>
+        <v>884.1061995589724</v>
       </c>
       <c r="V12" t="n">
-        <v>626.4439000703329</v>
+        <v>778.0331980922678</v>
       </c>
       <c r="W12" t="n">
-        <v>501.2856501071693</v>
+        <v>652.8749481291042</v>
       </c>
       <c r="X12" t="n">
-        <v>422.5132566666745</v>
+        <v>445.0234479235713</v>
       </c>
       <c r="Y12" t="n">
-        <v>343.8320646667585</v>
+        <v>366.3422559236554</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361487</v>
+        <v>188.9587444361483</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732798</v>
+        <v>149.1016682732794</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259821</v>
+        <v>128.0641356259818</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086269</v>
+        <v>109.2301488086267</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575457</v>
+        <v>91.41930807575443</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515459</v>
+        <v>52.07468323515452</v>
       </c>
       <c r="H13" t="n">
         <v>28.52719148360423</v>
@@ -5200,49 +5200,49 @@
         <v>116.9073512249363</v>
       </c>
       <c r="K13" t="n">
-        <v>133.1300382583595</v>
+        <v>259.6404707987733</v>
       </c>
       <c r="L13" t="n">
-        <v>291.374021188807</v>
+        <v>436.8161551685179</v>
       </c>
       <c r="M13" t="n">
-        <v>474.5621410049347</v>
+        <v>620.0042749846456</v>
       </c>
       <c r="N13" t="n">
-        <v>664.2601180044538</v>
+        <v>809.7022519841648</v>
       </c>
       <c r="O13" t="n">
-        <v>828.8213861356649</v>
+        <v>974.2635201153759</v>
       </c>
       <c r="P13" t="n">
-        <v>968.8289108745004</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="Q13" t="n">
-        <v>1049.096252526612</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526612</v>
+        <v>1049.096252526611</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880742</v>
+        <v>973.9262416880733</v>
       </c>
       <c r="T13" t="n">
-        <v>878.158545379295</v>
+        <v>878.1585453792942</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255934</v>
+        <v>718.0954637255927</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847445</v>
+        <v>592.4900822847438</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128219</v>
+        <v>432.1520190128213</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798425</v>
+        <v>333.241574879842</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013504</v>
+        <v>241.5281025013499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>757.8001186938363</v>
+        <v>1252.067772902285</v>
       </c>
       <c r="C14" t="n">
-        <v>757.8001186938363</v>
+        <v>1012.184362726911</v>
       </c>
       <c r="D14" t="n">
-        <v>757.8001186938363</v>
+        <v>782.9977708851991</v>
       </c>
       <c r="E14" t="n">
-        <v>501.09097286063</v>
+        <v>782.9977708851991</v>
       </c>
       <c r="F14" t="n">
-        <v>501.09097286063</v>
+        <v>501.0909728606295</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739345</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360377</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006829</v>
+        <v>83.71911784006733</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634144</v>
+        <v>217.1760266634135</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838414</v>
+        <v>419.6428849838406</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965342</v>
+        <v>676.5957134965333</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893068</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P14" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q14" t="n">
         <v>1426.359574180211</v>
@@ -5303,25 +5303,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180211</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180211</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.779635283347</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="V14" t="n">
-        <v>1239.010400497996</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="W14" t="n">
-        <v>1015.32085199292</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="X14" t="n">
-        <v>1015.32085199292</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="Y14" t="n">
-        <v>1015.32085199292</v>
+        <v>1408.525954683111</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>616.3864244931891</v>
+        <v>248.3206206559016</v>
       </c>
       <c r="C15" t="n">
-        <v>441.9333952120621</v>
+        <v>202.9466981398126</v>
       </c>
       <c r="D15" t="n">
-        <v>422.0780923158488</v>
+        <v>183.0913952435995</v>
       </c>
       <c r="E15" t="n">
-        <v>391.9197440754312</v>
+        <v>152.9330470031821</v>
       </c>
       <c r="F15" t="n">
-        <v>264.5567025601432</v>
+        <v>135.4775957951051</v>
       </c>
       <c r="G15" t="n">
         <v>127.3337218278553</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197354</v>
       </c>
       <c r="K15" t="n">
         <v>144.7567744385588</v>
@@ -5388,19 +5388,19 @@
         <v>1143.252802808842</v>
       </c>
       <c r="U15" t="n">
-        <v>1044.207491618499</v>
+        <v>934.2999013112864</v>
       </c>
       <c r="V15" t="n">
-        <v>938.1344901517938</v>
+        <v>828.2268998445818</v>
       </c>
       <c r="W15" t="n">
-        <v>812.9762401886301</v>
+        <v>573.9895431163802</v>
       </c>
       <c r="X15" t="n">
-        <v>734.2038467481352</v>
+        <v>366.1380429108473</v>
       </c>
       <c r="Y15" t="n">
-        <v>655.5226547482192</v>
+        <v>287.4568509109315</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361492</v>
+        <v>188.958744436148</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732802</v>
+        <v>149.1016682732792</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259824</v>
+        <v>128.0641356259816</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086272</v>
+        <v>109.2301488086266</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575474</v>
+        <v>91.41930807575433</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515468</v>
+        <v>52.07468323515447</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J16" t="n">
-        <v>116.9073512249361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K16" t="n">
-        <v>259.6404707987729</v>
+        <v>171.2603110574412</v>
       </c>
       <c r="L16" t="n">
-        <v>436.8161551685172</v>
+        <v>348.4359954271857</v>
       </c>
       <c r="M16" t="n">
-        <v>493.4938424442311</v>
+        <v>474.5621410049326</v>
       </c>
       <c r="N16" t="n">
-        <v>683.1918194437501</v>
+        <v>664.2601180044518</v>
       </c>
       <c r="O16" t="n">
-        <v>822.1228047026516</v>
+        <v>828.8213861356628</v>
       </c>
       <c r="P16" t="n">
-        <v>962.130329441487</v>
+        <v>968.8289108744984</v>
       </c>
       <c r="Q16" t="n">
-        <v>1042.397671093599</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526613</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880753</v>
+        <v>973.9262416880727</v>
       </c>
       <c r="T16" t="n">
-        <v>878.158545379296</v>
+        <v>878.1585453792935</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255944</v>
+        <v>718.095463725592</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847454</v>
+        <v>592.4900822847433</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128227</v>
+        <v>432.1520190128208</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798433</v>
+        <v>333.2415748798416</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.528102501351</v>
+        <v>241.5281025013496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646656</v>
+        <v>810.9578074646646</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010965</v>
+        <v>687.3775825010953</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711885</v>
+        <v>574.4941758711873</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497867</v>
+        <v>434.0882152497857</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370216</v>
+        <v>268.4846024370204</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256212987</v>
+        <v>97.18733256212995</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006738</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634135</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838406</v>
+        <v>419.6428849838405</v>
       </c>
       <c r="M17" t="n">
         <v>676.5957134965333</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893058</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
@@ -5552,13 +5552,13 @@
         <v>1332.402225128423</v>
       </c>
       <c r="W17" t="n">
-        <v>1225.015861835152</v>
+        <v>1225.015861835151</v>
       </c>
       <c r="X17" t="n">
-        <v>1096.932395550914</v>
+        <v>1096.932395550913</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519449</v>
+        <v>952.175355551944</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>349.5147787378463</v>
+        <v>435.5055864945621</v>
       </c>
       <c r="C18" t="n">
-        <v>175.0617494567192</v>
+        <v>435.5055864945621</v>
       </c>
       <c r="D18" t="n">
-        <v>175.0617494567192</v>
+        <v>286.5711768333108</v>
       </c>
       <c r="E18" t="n">
-        <v>175.0617494567192</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="F18" t="n">
-        <v>28.52719148360422</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="G18" t="n">
-        <v>28.52719148360422</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J18" t="n">
         <v>42.58127776197354</v>
@@ -5625,19 +5625,19 @@
         <v>1030.504380137816</v>
       </c>
       <c r="U18" t="n">
-        <v>802.3799621824352</v>
+        <v>1030.504380137816</v>
       </c>
       <c r="V18" t="n">
-        <v>773.9816424596921</v>
+        <v>1030.504380137816</v>
       </c>
       <c r="W18" t="n">
-        <v>765.126577708333</v>
+        <v>811.572423720163</v>
       </c>
       <c r="X18" t="n">
-        <v>557.2750775028002</v>
+        <v>603.7209235146302</v>
       </c>
       <c r="Y18" t="n">
-        <v>349.5147787378463</v>
+        <v>603.7209235146302</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="K19" t="n">
         <v>44.74987851702735</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635805</v>
+        <v>95.41513034635804</v>
       </c>
       <c r="M19" t="n">
         <v>152.0928176220719</v>
@@ -5701,22 +5701,22 @@
         <v>266.8282898703962</v>
       </c>
       <c r="T19" t="n">
-        <v>125.6241622146638</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="U19" t="n">
-        <v>81.86426577276677</v>
+        <v>81.86426577276694</v>
       </c>
       <c r="V19" t="n">
-        <v>72.56206954372236</v>
+        <v>72.56206954372244</v>
       </c>
       <c r="W19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360421</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646647</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010955</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497858</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370207</v>
+        <v>268.484602437021</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212988</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360423</v>
@@ -5750,19 +5750,19 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006829</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634144</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838414</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965338</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5786,16 +5786,16 @@
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
         <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
-        <v>1096.932395550915</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519448</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>508.7522337433018</v>
+        <v>205.2026995753288</v>
       </c>
       <c r="C21" t="n">
-        <v>334.2992044621748</v>
+        <v>205.2026995753288</v>
       </c>
       <c r="D21" t="n">
-        <v>334.2992044621748</v>
+        <v>205.2026995753288</v>
       </c>
       <c r="E21" t="n">
-        <v>175.0617494567193</v>
+        <v>45.96524456987333</v>
       </c>
       <c r="F21" t="n">
-        <v>28.52719148360423</v>
+        <v>45.96524456987333</v>
       </c>
       <c r="G21" t="n">
         <v>28.52719148360423</v>
@@ -5859,22 +5859,22 @@
         <v>1081.203511702439</v>
       </c>
       <c r="T21" t="n">
-        <v>1081.203511702439</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U21" t="n">
-        <v>998.141698703246</v>
+        <v>656.9701713233848</v>
       </c>
       <c r="V21" t="n">
-        <v>762.9895904715033</v>
+        <v>421.818063091642</v>
       </c>
       <c r="W21" t="n">
-        <v>508.7522337433018</v>
+        <v>412.9629983402828</v>
       </c>
       <c r="X21" t="n">
-        <v>508.7522337433018</v>
+        <v>412.9629983402828</v>
       </c>
       <c r="Y21" t="n">
-        <v>508.7522337433018</v>
+        <v>205.2026995753288</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5941,10 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U22" t="n">
-        <v>81.86426577276679</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V22" t="n">
-        <v>72.56206954372237</v>
+        <v>72.56206954372249</v>
       </c>
       <c r="W22" t="n">
         <v>28.52719148360423</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646646</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010955</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711878</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497861</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F23" t="n">
         <v>268.4846024370211</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256212985</v>
+        <v>97.18733256213</v>
       </c>
       <c r="H23" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I23" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006775</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K23" t="n">
         <v>217.1760266634139</v>
@@ -6014,25 +6014,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T23" t="n">
-        <v>1426.35957418021</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.08282049515</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128422</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X23" t="n">
-        <v>1096.932395550913</v>
+        <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.175355551944</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>508.7522337433018</v>
+        <v>795.7944250999137</v>
       </c>
       <c r="C24" t="n">
-        <v>334.2992044621748</v>
+        <v>621.3413958187867</v>
       </c>
       <c r="D24" t="n">
-        <v>334.2992044621748</v>
+        <v>472.4069861575355</v>
       </c>
       <c r="E24" t="n">
-        <v>175.0617494567192</v>
+        <v>313.16953115208</v>
       </c>
       <c r="F24" t="n">
-        <v>28.5271914836042</v>
+        <v>313.16953115208</v>
       </c>
       <c r="G24" t="n">
-        <v>28.5271914836042</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H24" t="n">
-        <v>28.5271914836042</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I24" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197352</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385588</v>
@@ -6105,13 +6105,13 @@
         <v>1226.61330256149</v>
       </c>
       <c r="W24" t="n">
-        <v>1092.579369733857</v>
+        <v>972.3759458332881</v>
       </c>
       <c r="X24" t="n">
-        <v>884.7278695283237</v>
+        <v>795.7944250999137</v>
       </c>
       <c r="Y24" t="n">
-        <v>676.9675707633698</v>
+        <v>795.7944250999137</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J25" t="n">
-        <v>28.5271914836042</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702734</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635804</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6178,19 +6178,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U25" t="n">
-        <v>223.0683934284992</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994548</v>
+        <v>213.7661971994546</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393366</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="X25" t="n">
-        <v>28.5271914836042</v>
+        <v>169.7313191393363</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.5271914836042</v>
+        <v>169.7313191393363</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607691</v>
+        <v>1619.642009607693</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879084</v>
+        <v>1366.982677879086</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.020164484138</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976988</v>
+        <v>855.5350970977001</v>
       </c>
       <c r="F26" t="n">
-        <v>560.852377519896</v>
+        <v>560.8523775198969</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799676</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551152</v>
+        <v>74.83913835551128</v>
       </c>
       <c r="J26" t="n">
-        <v>130.0310647119751</v>
+        <v>244.0198165380643</v>
       </c>
       <c r="K26" t="n">
-        <v>698.3806838068641</v>
+        <v>491.4654771874999</v>
       </c>
       <c r="L26" t="n">
-        <v>900.8475421272913</v>
+        <v>693.932335507927</v>
       </c>
       <c r="M26" t="n">
-        <v>1271.789122466074</v>
+        <v>1470.299654333429</v>
       </c>
       <c r="N26" t="n">
-        <v>1651.502276584936</v>
+        <v>2168.997511794066</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.071785191717</v>
+        <v>2588.339398965255</v>
       </c>
       <c r="P26" t="n">
-        <v>2603.909936535869</v>
+        <v>2870.596829219638</v>
       </c>
       <c r="Q26" t="n">
-        <v>2997.71634855339</v>
+        <v>3062.775604227647</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820206</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769873</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913464</v>
+        <v>3009.518416913467</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463366</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.4028543316</v>
+        <v>2657.402854331603</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.93738427329</v>
+        <v>2420.937384273293</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224015</v>
+        <v>2163.774811224018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460008</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>247.6032596306176</v>
+        <v>247.6032596306193</v>
       </c>
       <c r="C27" t="n">
-        <v>189.4534155612952</v>
+        <v>189.4534155612966</v>
       </c>
       <c r="D27" t="n">
-        <v>156.8221911118486</v>
+        <v>156.8221911118497</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181978</v>
+        <v>113.8879213181985</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688737</v>
+        <v>83.65654855688778</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477345</v>
+        <v>76.79083931477354</v>
       </c>
       <c r="K27" t="n">
-        <v>178.9663359913587</v>
+        <v>178.9663359913588</v>
       </c>
       <c r="L27" t="n">
         <v>362.6764416676406</v>
       </c>
       <c r="M27" t="n">
-        <v>596.4143381182389</v>
+        <v>596.414338118239</v>
       </c>
       <c r="N27" t="n">
         <v>850.7472260948143</v>
@@ -6330,25 +6330,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1231.716258467044</v>
+        <v>1163.537274901151</v>
       </c>
       <c r="T27" t="n">
-        <v>1151.910521255175</v>
+        <v>1083.731537689282</v>
       </c>
       <c r="U27" t="n">
-        <v>1040.089288511599</v>
+        <v>971.9103049457055</v>
       </c>
       <c r="V27" t="n">
-        <v>921.2403654916606</v>
+        <v>853.0613819257671</v>
       </c>
       <c r="W27" t="n">
-        <v>667.0030087634589</v>
+        <v>598.8240251975654</v>
       </c>
       <c r="X27" t="n">
-        <v>507.2757102038349</v>
+        <v>390.9725249920326</v>
       </c>
       <c r="Y27" t="n">
-        <v>415.8185966506856</v>
+        <v>299.515411438883</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147505</v>
+        <v>302.5256054147529</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986483</v>
+        <v>249.8926076986503</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981172</v>
+        <v>216.0791534981189</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275288</v>
+        <v>184.4692451275301</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414231</v>
+        <v>153.8824828414241</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475898</v>
+        <v>101.7619364475905</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280608</v>
+        <v>65.43852314280649</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J28" t="n">
-        <v>171.8951109729082</v>
+        <v>171.895110972908</v>
       </c>
       <c r="K28" t="n">
-        <v>326.6867116444971</v>
+        <v>188.1177980063312</v>
       </c>
       <c r="L28" t="n">
-        <v>377.3519634738278</v>
+        <v>352.7718016617513</v>
       </c>
       <c r="M28" t="n">
-        <v>548.0184025756314</v>
+        <v>523.4382407635545</v>
       </c>
       <c r="N28" t="n">
-        <v>725.1946988608265</v>
+        <v>630.3014419253664</v>
       </c>
       <c r="O28" t="n">
-        <v>877.2342862777134</v>
+        <v>943.7522790444766</v>
       </c>
       <c r="P28" t="n">
-        <v>1138.376627983126</v>
+        <v>1203.066156777106</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714887</v>
+        <v>1270.811817714893</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.87048593108</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539309</v>
+        <v>1176.924553539314</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677297</v>
+        <v>1068.380935677301</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703619</v>
+        <v>895.541932470366</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762796</v>
+        <v>757.1606294762834</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511236</v>
+        <v>584.0466446511271</v>
       </c>
       <c r="X28" t="n">
-        <v>472.360278964911</v>
+        <v>472.3602789649141</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331856</v>
+        <v>367.8708850331883</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607692</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879085</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.020164484139</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970976993</v>
+        <v>855.5350970977015</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198965</v>
+        <v>560.8523775198984</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799675</v>
+        <v>260.4760008799679</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551158</v>
+        <v>74.83913835551139</v>
       </c>
       <c r="J29" t="n">
-        <v>244.0198165380649</v>
+        <v>244.0198165380644</v>
       </c>
       <c r="K29" t="n">
-        <v>491.4654771875009</v>
+        <v>491.4654771875001</v>
       </c>
       <c r="L29" t="n">
-        <v>1167.974562787262</v>
+        <v>1158.052472602549</v>
       </c>
       <c r="M29" t="n">
-        <v>1905.986232391443</v>
+        <v>1528.994052941331</v>
       </c>
       <c r="N29" t="n">
-        <v>2171.710634684216</v>
+        <v>1908.707207060193</v>
       </c>
       <c r="O29" t="n">
-        <v>2523.280143290997</v>
+        <v>2523.280143291003</v>
       </c>
       <c r="P29" t="n">
-        <v>2805.53757354538</v>
+        <v>2805.537573545386</v>
       </c>
       <c r="Q29" t="n">
-        <v>2997.71634855339</v>
+        <v>2997.716348553395</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820206</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769872</v>
+        <v>3106.228110769876</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913464</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463366</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.4028543316</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273291</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224016</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460009</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>432.0854284083185</v>
+        <v>315.782243196512</v>
       </c>
       <c r="C30" t="n">
-        <v>373.9355843389963</v>
+        <v>257.6323991271894</v>
       </c>
       <c r="D30" t="n">
-        <v>225.001174677745</v>
+        <v>225.0011746777426</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8879213181976</v>
+        <v>182.0669048840916</v>
       </c>
       <c r="F30" t="n">
-        <v>83.65654855688729</v>
+        <v>151.835532122781</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477345</v>
+        <v>76.79083931477354</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913587</v>
+        <v>178.9663359913588</v>
       </c>
       <c r="L30" t="n">
         <v>362.6764416676406</v>
       </c>
       <c r="M30" t="n">
-        <v>596.4143381182389</v>
+        <v>596.414338118239</v>
       </c>
       <c r="N30" t="n">
         <v>850.7472260948143</v>
@@ -6567,25 +6567,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S30" t="n">
-        <v>1231.716258467044</v>
+        <v>1115.413073255239</v>
       </c>
       <c r="T30" t="n">
-        <v>1151.910521255175</v>
+        <v>919.3041508315655</v>
       </c>
       <c r="U30" t="n">
-        <v>1040.089288511599</v>
+        <v>807.482918087989</v>
       </c>
       <c r="V30" t="n">
-        <v>921.2403654916607</v>
+        <v>688.6339950680507</v>
       </c>
       <c r="W30" t="n">
-        <v>667.0030087634591</v>
+        <v>550.6998235516535</v>
       </c>
       <c r="X30" t="n">
-        <v>575.454693769731</v>
+        <v>459.1515085579251</v>
       </c>
       <c r="Y30" t="n">
-        <v>483.9975802165818</v>
+        <v>367.6943950047756</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147501</v>
+        <v>302.5256054147521</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986479</v>
+        <v>249.8926076986496</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981169</v>
+        <v>216.0791534981184</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275285</v>
+        <v>184.4692451275297</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414229</v>
+        <v>153.8824828414238</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475896</v>
+        <v>101.7619364475903</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280601</v>
+        <v>65.43852314280637</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640412</v>
+        <v>138.595232063412</v>
       </c>
       <c r="K31" t="n">
-        <v>184.6357687510333</v>
+        <v>364.2062180788472</v>
       </c>
       <c r="L31" t="n">
-        <v>349.2897724064538</v>
+        <v>575.7214244343168</v>
       </c>
       <c r="M31" t="n">
-        <v>405.9674596821676</v>
+        <v>809.1236760103818</v>
       </c>
       <c r="N31" t="n">
-        <v>753.24329564338</v>
+        <v>986.2999722955767</v>
       </c>
       <c r="O31" t="n">
-        <v>1066.694132762491</v>
+        <v>1075.580312752592</v>
       </c>
       <c r="P31" t="n">
-        <v>1203.066156777099</v>
+        <v>1203.066156777104</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714887</v>
+        <v>1270.811817714891</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931079</v>
+        <v>1264.870485931084</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539308</v>
+        <v>1176.924553539312</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677296</v>
+        <v>1068.3809356773</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703611</v>
+        <v>895.5419324703646</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762789</v>
+        <v>757.1606294762821</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511231</v>
+        <v>584.0466446511259</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649104</v>
+        <v>472.3602789649131</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331851</v>
+        <v>367.8708850331874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607691</v>
+        <v>1619.642009607694</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879084</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.020164484138</v>
+        <v>1125.02016448414</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970976986</v>
+        <v>855.5350970977006</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198958</v>
+        <v>560.8523775198973</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799676</v>
+        <v>260.476000879968</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I32" t="n">
-        <v>74.83913835551152</v>
+        <v>74.83913835551131</v>
       </c>
       <c r="J32" t="n">
-        <v>411.4254655584179</v>
+        <v>244.0198165380643</v>
       </c>
       <c r="K32" t="n">
-        <v>625.8388992514474</v>
+        <v>491.4654771874999</v>
       </c>
       <c r="L32" t="n">
-        <v>942.2945093979642</v>
+        <v>807.9210873340164</v>
       </c>
       <c r="M32" t="n">
-        <v>1313.236089736747</v>
+        <v>1178.862667672799</v>
       </c>
       <c r="N32" t="n">
-        <v>1692.949243855609</v>
+        <v>1558.57582179166</v>
       </c>
       <c r="O32" t="n">
-        <v>2044.51875246239</v>
+        <v>2287.13750984856</v>
       </c>
       <c r="P32" t="n">
-        <v>2645.356903806542</v>
+        <v>2887.975661192711</v>
       </c>
       <c r="Q32" t="n">
-        <v>3047.727519567857</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820206</v>
+        <v>3136.83765182021</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769872</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913464</v>
+        <v>3009.518416913467</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463366</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.4028543316</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.93738427329</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224015</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460008</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>247.6032596306175</v>
+        <v>363.9064448424235</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4534155612951</v>
+        <v>305.7566007731008</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118485</v>
+        <v>273.1253763236539</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181977</v>
+        <v>230.1911065300028</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688734</v>
+        <v>199.9597337686921</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477345</v>
+        <v>76.79083931477354</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913587</v>
+        <v>178.9663359913588</v>
       </c>
       <c r="L33" t="n">
         <v>362.6764416676406</v>
       </c>
       <c r="M33" t="n">
-        <v>596.4143381182389</v>
+        <v>596.414338118239</v>
       </c>
       <c r="N33" t="n">
         <v>850.7472260948143</v>
@@ -6804,25 +6804,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1231.716258467044</v>
+        <v>1115.413073255239</v>
       </c>
       <c r="T33" t="n">
-        <v>1151.910521255175</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U33" t="n">
-        <v>971.9103049457024</v>
+        <v>855.6071197339008</v>
       </c>
       <c r="V33" t="n">
-        <v>736.7581967139597</v>
+        <v>736.7581967139624</v>
       </c>
       <c r="W33" t="n">
-        <v>482.5208399857581</v>
+        <v>598.8240251975652</v>
       </c>
       <c r="X33" t="n">
-        <v>390.97252499203</v>
+        <v>507.2757102038368</v>
       </c>
       <c r="Y33" t="n">
-        <v>299.5154114388808</v>
+        <v>415.8185966506872</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147504</v>
+        <v>302.5256054147527</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986482</v>
+        <v>249.8926076986502</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981172</v>
+        <v>216.0791534981188</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275287</v>
+        <v>184.4692451275301</v>
       </c>
       <c r="F34" t="n">
-        <v>153.882482841423</v>
+        <v>153.8824828414241</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475897</v>
+        <v>101.7619364475904</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280606</v>
+        <v>65.43852314280646</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640412</v>
+        <v>62.73675303640421</v>
       </c>
       <c r="J34" t="n">
-        <v>62.73675303640412</v>
+        <v>171.895110972908</v>
       </c>
       <c r="K34" t="n">
-        <v>184.6357687510333</v>
+        <v>302.1065498324206</v>
       </c>
       <c r="L34" t="n">
-        <v>396.1509751065029</v>
+        <v>513.6217561878901</v>
       </c>
       <c r="M34" t="n">
-        <v>629.5532266825679</v>
+        <v>684.2881952896935</v>
       </c>
       <c r="N34" t="n">
-        <v>862.8403108176905</v>
+        <v>991.2863862734944</v>
       </c>
       <c r="O34" t="n">
-        <v>1062.302396110711</v>
+        <v>1143.325973690381</v>
       </c>
       <c r="P34" t="n">
-        <v>1209.455985990034</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714887</v>
+        <v>1270.811817714892</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.87048593108</v>
+        <v>1264.870485931085</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539309</v>
+        <v>1176.924553539314</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677297</v>
+        <v>1068.380935677301</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703616</v>
+        <v>895.5419324703656</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762795</v>
+        <v>757.1606294762831</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511235</v>
+        <v>584.0466446511268</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649109</v>
+        <v>472.3602789649138</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331855</v>
+        <v>367.8708850331881</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291543</v>
+        <v>955.8582442291572</v>
       </c>
       <c r="C35" t="n">
-        <v>809.075008149703</v>
+        <v>809.0750081497051</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039126</v>
+        <v>672.9885904039143</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666284</v>
+        <v>509.3796186666297</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379809</v>
+        <v>320.5729947379818</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472079</v>
+        <v>126.0727137472084</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I35" t="n">
-        <v>150.0811082176445</v>
+        <v>52.06174544571634</v>
       </c>
       <c r="J35" t="n">
-        <v>205.2730345741081</v>
+        <v>107.2536718021799</v>
       </c>
       <c r="K35" t="n">
-        <v>338.7299433974542</v>
+        <v>240.7105806255261</v>
       </c>
       <c r="L35" t="n">
-        <v>541.1968017178813</v>
+        <v>443.1774389459532</v>
       </c>
       <c r="M35" t="n">
-        <v>798.1496302305741</v>
+        <v>700.1302674586459</v>
       </c>
       <c r="N35" t="n">
-        <v>1063.874032523347</v>
+        <v>965.8546697514184</v>
       </c>
       <c r="O35" t="n">
-        <v>1301.454789304038</v>
+        <v>1203.43542653211</v>
       </c>
       <c r="P35" t="n">
-        <v>1469.723467732332</v>
+        <v>1371.704104960404</v>
       </c>
       <c r="Q35" t="n">
-        <v>1547.913490914251</v>
+        <v>1449.894128142323</v>
       </c>
       <c r="R35" t="n">
-        <v>1627.725337080617</v>
+        <v>1627.725337080624</v>
       </c>
       <c r="S35" t="n">
-        <v>1701.494087242922</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639994</v>
+        <v>1710.478077639999</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839052</v>
+        <v>1678.998312839057</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356441</v>
+        <v>1570.114706356446</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947287</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547168</v>
+        <v>1288.238854547171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432319</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="C36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="D36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="E36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155279988</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J36" t="n">
-        <v>48.2636478311692</v>
+        <v>48.26364783116932</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840363</v>
+        <v>334.1492501840364</v>
       </c>
       <c r="M36" t="n">
         <v>567.8871466346347</v>
@@ -7038,28 +7038,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R36" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S36" t="n">
-        <v>1232.295672630685</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T36" t="n">
-        <v>1232.295672630685</v>
+        <v>837.2445827965751</v>
       </c>
       <c r="U36" t="n">
-        <v>1004.171254675305</v>
+        <v>779.9721538696349</v>
       </c>
       <c r="V36" t="n">
-        <v>769.0191464435618</v>
+        <v>544.8200456378922</v>
       </c>
       <c r="W36" t="n">
-        <v>514.7817897153602</v>
+        <v>290.5826889096907</v>
       </c>
       <c r="X36" t="n">
-        <v>306.9302895098274</v>
+        <v>290.5826889096907</v>
       </c>
       <c r="Y36" t="n">
-        <v>99.16999074487347</v>
+        <v>82.82239014473672</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622301</v>
+        <v>50.43224858622312</v>
       </c>
       <c r="L37" t="n">
-        <v>101.0975004155537</v>
+        <v>101.0975004155538</v>
       </c>
       <c r="M37" t="n">
-        <v>157.7751876912675</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N37" t="n">
-        <v>220.9627321503729</v>
+        <v>220.962732150373</v>
       </c>
       <c r="O37" t="n">
-        <v>259.0135677411701</v>
+        <v>259.0135677411702</v>
       </c>
       <c r="P37" t="n">
-        <v>272.5106599395919</v>
+        <v>272.510659939592</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.5106599395919</v>
+        <v>272.510659939592</v>
       </c>
       <c r="R37" t="n">
-        <v>272.5106599395919</v>
+        <v>272.510659939592</v>
       </c>
       <c r="S37" t="n">
-        <v>272.5106599395919</v>
+        <v>272.510659939592</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267348</v>
+        <v>269.8431377267345</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689554</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V37" t="n">
-        <v>107.2577207658576</v>
+        <v>170.3750228240275</v>
       </c>
       <c r="W37" t="n">
-        <v>40.01983158985711</v>
+        <v>103.1371336480265</v>
       </c>
       <c r="X37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.20956155279988</v>
+        <v>34.20956155279999</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291552</v>
+        <v>955.8582442291581</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497035</v>
+        <v>809.075008149706</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039131</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E38" t="n">
-        <v>509.379618666629</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379816</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472079</v>
+        <v>126.0727137472085</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I38" t="n">
-        <v>52.0617454457102</v>
+        <v>52.06174544571725</v>
       </c>
       <c r="J38" t="n">
-        <v>107.2536718021738</v>
+        <v>107.2536718021808</v>
       </c>
       <c r="K38" t="n">
-        <v>240.7105806255199</v>
+        <v>240.710580625527</v>
       </c>
       <c r="L38" t="n">
-        <v>443.177438945947</v>
+        <v>443.1774389459541</v>
       </c>
       <c r="M38" t="n">
-        <v>700.1302674586398</v>
+        <v>700.1302674586468</v>
       </c>
       <c r="N38" t="n">
-        <v>965.8546697514123</v>
+        <v>965.8546697514194</v>
       </c>
       <c r="O38" t="n">
-        <v>1203.435426532104</v>
+        <v>1203.435426532111</v>
       </c>
       <c r="P38" t="n">
-        <v>1371.704104960398</v>
+        <v>1371.704104960405</v>
       </c>
       <c r="Q38" t="n">
-        <v>1449.894128142317</v>
+        <v>1449.894128142324</v>
       </c>
       <c r="R38" t="n">
-        <v>1627.725337080618</v>
+        <v>1627.725337080625</v>
       </c>
       <c r="S38" t="n">
-        <v>1701.494087242923</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639995</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839053</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.20956155279989</v>
+        <v>591.2266598835811</v>
       </c>
       <c r="C39" t="n">
-        <v>34.20956155279989</v>
+        <v>416.7736306024541</v>
       </c>
       <c r="D39" t="n">
-        <v>34.20956155279989</v>
+        <v>416.7736306024541</v>
       </c>
       <c r="E39" t="n">
-        <v>34.20956155279989</v>
+        <v>416.7736306024541</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155279989</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155279989</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116922</v>
+        <v>48.26364783116933</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840363</v>
+        <v>334.1492501840364</v>
       </c>
       <c r="M39" t="n">
         <v>567.8871466346347</v>
@@ -7275,28 +7275,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R39" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S39" t="n">
-        <v>1232.295672630685</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T39" t="n">
-        <v>1036.186750207012</v>
+        <v>850.0542004215602</v>
       </c>
       <c r="U39" t="n">
-        <v>808.0623322516309</v>
+        <v>844.109063327139</v>
       </c>
       <c r="V39" t="n">
-        <v>795.0895048808483</v>
+        <v>831.1362359563559</v>
       </c>
       <c r="W39" t="n">
-        <v>540.8521481526466</v>
+        <v>799.0781600891139</v>
       </c>
       <c r="X39" t="n">
-        <v>333.0006479471137</v>
+        <v>591.2266598835811</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2403491821598</v>
+        <v>591.2266598835811</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155279989</v>
+        <v>97.32686361096894</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622303</v>
+        <v>50.43224858622314</v>
       </c>
       <c r="L40" t="n">
-        <v>101.0975004155537</v>
+        <v>101.0975004155538</v>
       </c>
       <c r="M40" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N40" t="n">
-        <v>220.9627321503729</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O40" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267349</v>
+        <v>269.8431377267346</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689554</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V40" t="n">
-        <v>170.3750228240287</v>
+        <v>170.3750228240276</v>
       </c>
       <c r="W40" t="n">
-        <v>103.1371336480282</v>
+        <v>103.1371336480266</v>
       </c>
       <c r="X40" t="n">
-        <v>97.32686361097096</v>
+        <v>97.32686361096894</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.32686361097096</v>
+        <v>97.32686361096894</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291547</v>
+        <v>955.8582442291574</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497029</v>
+        <v>809.0750081497054</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039124</v>
+        <v>672.9885904039145</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666284</v>
+        <v>509.37961866663</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379809</v>
+        <v>320.5729947379821</v>
       </c>
       <c r="G41" t="n">
-        <v>126.072713747208</v>
+        <v>126.0727137472085</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I41" t="n">
-        <v>150.0811082176444</v>
+        <v>150.0811082176442</v>
       </c>
       <c r="J41" t="n">
-        <v>205.273034574108</v>
+        <v>205.2730345741078</v>
       </c>
       <c r="K41" t="n">
-        <v>338.7299433974542</v>
+        <v>338.729943397454</v>
       </c>
       <c r="L41" t="n">
-        <v>541.1968017178813</v>
+        <v>541.196801717881</v>
       </c>
       <c r="M41" t="n">
-        <v>798.1496302305741</v>
+        <v>798.1496302305738</v>
       </c>
       <c r="N41" t="n">
-        <v>1063.874032523347</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O41" t="n">
         <v>1301.454789304038</v>
@@ -7433,28 +7433,28 @@
         <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1627.725337080618</v>
+        <v>1627.725337080625</v>
       </c>
       <c r="S41" t="n">
-        <v>1701.494087242923</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639995</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839052</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547168</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.8942333507194</v>
+        <v>501.7387536972657</v>
       </c>
       <c r="C42" t="n">
-        <v>186.4412040695924</v>
+        <v>327.2857244161387</v>
       </c>
       <c r="D42" t="n">
-        <v>186.4412040695924</v>
+        <v>327.2857244161387</v>
       </c>
       <c r="E42" t="n">
-        <v>186.4412040695924</v>
+        <v>168.0482694106832</v>
       </c>
       <c r="F42" t="n">
-        <v>39.90664609647735</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="G42" t="n">
-        <v>39.90664609647735</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116922</v>
+        <v>48.26364783116933</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L42" t="n">
-        <v>334.1492501840363</v>
+        <v>334.1492501840364</v>
       </c>
       <c r="M42" t="n">
         <v>567.8871466346347</v>
@@ -7512,28 +7512,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R42" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S42" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="T42" t="n">
-        <v>1232.295672630685</v>
+        <v>982.6543736556255</v>
       </c>
       <c r="U42" t="n">
-        <v>1226.350535536264</v>
+        <v>976.7092365612043</v>
       </c>
       <c r="V42" t="n">
-        <v>991.1984273045218</v>
+        <v>963.7364091904212</v>
       </c>
       <c r="W42" t="n">
-        <v>736.9610705763203</v>
+        <v>709.4990524622197</v>
       </c>
       <c r="X42" t="n">
-        <v>529.1095703707874</v>
+        <v>709.4990524622197</v>
       </c>
       <c r="Y42" t="n">
-        <v>529.1095703707874</v>
+        <v>501.7387536972657</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622303</v>
+        <v>50.43224858622314</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155537</v>
+        <v>101.0975004155538</v>
       </c>
       <c r="M43" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N43" t="n">
-        <v>220.9627321503729</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O43" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S43" t="n">
-        <v>209.3933578814213</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T43" t="n">
-        <v>206.7258356685642</v>
+        <v>269.8431377267346</v>
       </c>
       <c r="U43" t="n">
-        <v>139.7629281107847</v>
+        <v>139.7629281107858</v>
       </c>
       <c r="V43" t="n">
-        <v>107.2577207658578</v>
+        <v>107.2577207658586</v>
       </c>
       <c r="W43" t="n">
-        <v>40.0198315898572</v>
+        <v>40.01983158985766</v>
       </c>
       <c r="X43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155279989</v>
+        <v>34.2095615528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291541</v>
+        <v>955.8582442291583</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497026</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039122</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666279</v>
+        <v>509.3796186666306</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379803</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I44" t="n">
-        <v>150.0811082176444</v>
+        <v>150.081108217644</v>
       </c>
       <c r="J44" t="n">
-        <v>205.2730345741079</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K44" t="n">
-        <v>338.7299433974541</v>
+        <v>338.7299433974538</v>
       </c>
       <c r="L44" t="n">
-        <v>541.1968017178812</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M44" t="n">
-        <v>798.1496302305738</v>
+        <v>798.1496302305736</v>
       </c>
       <c r="N44" t="n">
         <v>1063.874032523346</v>
@@ -7670,28 +7670,28 @@
         <v>1547.913490914251</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639995</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639995</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639995</v>
+        <v>1710.478077640002</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839053</v>
+        <v>1678.998312839059</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356442</v>
+        <v>1570.114706356448</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947288</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547168</v>
+        <v>1288.238854547173</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432316</v>
+        <v>1120.278803432321</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>466.9015099194541</v>
+        <v>357.5970004951783</v>
       </c>
       <c r="C45" t="n">
-        <v>466.9015099194541</v>
+        <v>183.1439712140513</v>
       </c>
       <c r="D45" t="n">
-        <v>317.9671002582028</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E45" t="n">
-        <v>317.9671002582028</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F45" t="n">
-        <v>171.4325422850878</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116922</v>
+        <v>48.26364783116937</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840363</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N45" t="n">
         <v>822.2200346112102</v>
@@ -7752,25 +7752,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S45" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T45" t="n">
-        <v>890.7769593479613</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U45" t="n">
-        <v>884.8318222535404</v>
+        <v>1040.41898356465</v>
       </c>
       <c r="V45" t="n">
-        <v>706.7198845516497</v>
+        <v>1027.446156193867</v>
       </c>
       <c r="W45" t="n">
-        <v>674.661808684408</v>
+        <v>773.2087994656652</v>
       </c>
       <c r="X45" t="n">
-        <v>674.661808684408</v>
+        <v>565.3572992601323</v>
       </c>
       <c r="Y45" t="n">
-        <v>466.9015099194541</v>
+        <v>357.5970004951783</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="C46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="D46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="E46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="F46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="G46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622303</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155537</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N46" t="n">
-        <v>220.9627321503729</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O46" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T46" t="n">
-        <v>206.7258356685645</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U46" t="n">
-        <v>139.7629281107849</v>
+        <v>139.7629281107865</v>
       </c>
       <c r="V46" t="n">
-        <v>107.257720765858</v>
+        <v>107.2577207658591</v>
       </c>
       <c r="W46" t="n">
-        <v>40.01983158985729</v>
+        <v>40.01983158985793</v>
       </c>
       <c r="X46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.20956155279989</v>
+        <v>34.20956155280004</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>409.5209479663838</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>68.4569480448572</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.6642798075875</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>95.85177468228349</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>133.1596300081997</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>363.6903792457013</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10273,19 +10273,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>51.74697461234165</v>
       </c>
       <c r="P31" t="n">
-        <v>8.975939383935867</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>159.0943714507281</v>
       </c>
       <c r="R32" t="n">
-        <v>15.20008551493507</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>131.133226968289</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358285</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H11" t="n">
-        <v>32.97145495326899</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212899</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>80.77770108840897</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727473</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>241.9427849810814</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.449622958666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100.0519260030754</v>
       </c>
       <c r="C14" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232954</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443239</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212916</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014353</v>
+        <v>83.09443458014333</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>137.8224003352497</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810815</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586661</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703040.2178316824</v>
+        <v>703040.2178316825</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642837</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>867487.9449152702</v>
+        <v>867487.9449152707</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>867487.9449152701</v>
+        <v>867487.9449152704</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>867487.9449152702</v>
+        <v>867487.9449152705</v>
       </c>
     </row>
     <row r="13">
@@ -26314,46 +26314,46 @@
         <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
-        <v>527280.1633737619</v>
+        <v>527280.163373762</v>
       </c>
       <c r="F2" t="n">
-        <v>527280.1633737616</v>
+        <v>527280.1633737618</v>
       </c>
       <c r="G2" t="n">
+        <v>615781.3273982119</v>
+      </c>
+      <c r="H2" t="n">
         <v>615781.327398212</v>
-      </c>
-      <c r="H2" t="n">
-        <v>615781.3273982119</v>
       </c>
       <c r="I2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="J2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="L2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="K2" t="n">
-        <v>615781.3273982122</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615781.327398212</v>
-      </c>
       <c r="M2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="O2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="P2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224333</v>
+        <v>766266.5351224334</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774922</v>
+        <v>92112.122687749</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365098</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>1.818989403545856e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774917</v>
+        <v>92112.12268774892</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.8677541311</v>
+        <v>83853.86775413102</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161674.3217732035</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="F4" t="n">
-        <v>161674.3217732035</v>
+        <v>161674.3217732036</v>
       </c>
       <c r="G4" t="n">
         <v>228781.8774821128</v>
@@ -26442,7 +26442,7 @@
         <v>231159.1105944614</v>
       </c>
       <c r="K4" t="n">
-        <v>231159.1105944614</v>
+        <v>231159.1105944615</v>
       </c>
       <c r="L4" t="n">
         <v>231159.1105944614</v>
@@ -26451,10 +26451,10 @@
         <v>229069.74047253</v>
       </c>
       <c r="N4" t="n">
-        <v>229069.74047253</v>
+        <v>229069.7404725301</v>
       </c>
       <c r="O4" t="n">
-        <v>229069.74047253</v>
+        <v>229069.7404725301</v>
       </c>
       <c r="P4" t="n">
         <v>229069.74047253</v>
@@ -26479,37 +26479,37 @@
         <v>47553.01820892902</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892901</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
+        <v>57232.73576172447</v>
+      </c>
+      <c r="H5" t="n">
         <v>57232.73576172449</v>
-      </c>
-      <c r="H5" t="n">
-        <v>57232.7357617245</v>
       </c>
       <c r="I5" t="n">
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948874</v>
+        <v>72488.96662948879</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948876</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948874</v>
+        <v>72488.96662948879</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.18961222713</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.1896122271</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222708</v>
+        <v>59620.18961222716</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113213.6941060474</v>
+        <v>113209.2805281793</v>
       </c>
       <c r="C6" t="n">
-        <v>113213.6941060472</v>
+        <v>113209.2805281794</v>
       </c>
       <c r="D6" t="n">
-        <v>113213.6941060475</v>
+        <v>113209.2805281793</v>
       </c>
       <c r="E6" t="n">
-        <v>-448213.7117308039</v>
+        <v>-448508.7156108855</v>
       </c>
       <c r="F6" t="n">
-        <v>318052.8233916294</v>
+        <v>317757.8195115477</v>
       </c>
       <c r="G6" t="n">
-        <v>237654.5914666255</v>
+        <v>237654.5914666257</v>
       </c>
       <c r="H6" t="n">
-        <v>329766.7141543747</v>
+        <v>329766.7141543748</v>
       </c>
       <c r="I6" t="n">
         <v>329766.7141543751</v>
       </c>
       <c r="J6" t="n">
-        <v>200249.1686377523</v>
+        <v>200249.168637752</v>
       </c>
       <c r="K6" t="n">
-        <v>312133.2501742619</v>
+        <v>312133.2501742621</v>
       </c>
       <c r="L6" t="n">
-        <v>220021.1274865128</v>
+        <v>220021.1274865132</v>
       </c>
       <c r="M6" t="n">
-        <v>243237.5295593242</v>
+        <v>243237.5295593244</v>
       </c>
       <c r="N6" t="n">
-        <v>327091.3973134553</v>
+        <v>327091.3973134555</v>
       </c>
       <c r="O6" t="n">
-        <v>327091.3973134555</v>
+        <v>327091.3973134556</v>
       </c>
       <c r="P6" t="n">
         <v>327091.3973134555</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
         <v>242.928469057074</v>
       </c>
       <c r="H2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I2" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="3">
@@ -26799,37 +26799,37 @@
         <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450527</v>
+        <v>356.5898935450526</v>
       </c>
       <c r="H4" t="n">
         <v>356.5898935450529</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450525</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550514</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550514</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550514</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194099984</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099986</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099986</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099986</v>
+        <v>427.6195194100005</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926639</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>694.0053563773454</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.176889026433905e-13</v>
+        <v>-3.139307860380569e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099989</v>
+        <v>427.6195194099998</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.589893545053</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242245</v>
@@ -28138,25 +28138,25 @@
         <v>40.3300042762892</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F12" t="n">
-        <v>71.97685407911953</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
-        <v>48.12670030601734</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>22.28508934432807</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I13" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L13" t="n">
-        <v>108.665384950623</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973876</v>
+        <v>61.95519213415476</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973876</v>
+        <v>46.71019281646669</v>
       </c>
       <c r="R13" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F15" t="n">
-        <v>18.97980129324878</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973875</v>
+        <v>18.97980129324719</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
         <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973875</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>70.14995788084141</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O16" t="n">
-        <v>101.8991410788932</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R16" t="n">
-        <v>127.7883156973875</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>48.12670030601736</v>
@@ -28697,19 +28697,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>204.6862506239096</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>242.928469057074</v>
+        <v>34.95234630744309</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28773,7 +28773,7 @@
         <v>202.20662642754</v>
       </c>
       <c r="T19" t="n">
-        <v>82.80624866390394</v>
+        <v>82.80624866390417</v>
       </c>
       <c r="U19" t="n">
         <v>242.928469057074</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28889,10 +28889,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>118.5870783695586</v>
       </c>
       <c r="H21" t="n">
         <v>97.81846504080859</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>143.6119789066257</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29013,13 +29013,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>103.136382677899</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V22" t="n">
-        <v>242.928469057074</v>
+        <v>103.1363826778992</v>
       </c>
       <c r="W22" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="C23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="D23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="E23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="F23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="G23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="H23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29086,25 +29086,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S23" t="n">
-        <v>145.4435989995155</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T23" t="n">
         <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29177,13 +29177,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>119.0013896615628</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>30.95727967743682</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>40.03989380276255</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29250,16 +29250,16 @@
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="V25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="W25" t="n">
-        <v>242.928469057074</v>
+        <v>242.9284690570739</v>
       </c>
       <c r="X25" t="n">
-        <v>85.91756900986209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29402,25 +29402,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S27" t="n">
-        <v>115.1401533596866</v>
+        <v>47.64295962945299</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>47.64295962944973</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K28" t="n">
-        <v>44.11682495222734</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596866</v>
+        <v>44.11682495222873</v>
       </c>
       <c r="O28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596867</v>
+        <v>51.14700473704636</v>
       </c>
       <c r="M29" t="n">
-        <v>36.40448781170092</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E30" t="n">
-        <v>47.64295962944902</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596867</v>
+        <v>47.64295962945201</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29639,25 +29639,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596867</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596867</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="J31" t="n">
-        <v>38.51542706977952</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>104.7595659604101</v>
       </c>
       <c r="L31" t="n">
-        <v>115.1401533596867</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="O31" t="n">
-        <v>115.1401533596867</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596867</v>
+        <v>115.1401533596864</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K32" t="n">
-        <v>81.77426754513473</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596866</v>
+        <v>13.30155526197937</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29876,25 +29876,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596866</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U33" t="n">
-        <v>47.64295962944928</v>
+        <v>47.64295962945263</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="J34" t="n">
-        <v>38.51542706977952</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.34282203957738</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596866</v>
+        <v>115.1401533596863</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I35" t="n">
-        <v>219.9574880523505</v>
+        <v>120.9480307069684</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>120.9480307069615</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="S35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.2223587497145</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -30083,7 +30083,7 @@
         <v>97.81846504080859</v>
       </c>
       <c r="I36" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>169.1434691381563</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4713590147612</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523505</v>
+        <v>157.4713590147629</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
-        <v>120.9480307069623</v>
+        <v>120.9480307069693</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="S38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.41270389680101</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30311,13 +30311,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>48.12670030601736</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>12.6815214487352</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V39" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.3458511443479</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>104.7606920610406</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523505</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>120.9480307069624</v>
+        <v>120.9480307069693</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,16 +30545,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>110.3873566548881</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>92.17835134256791</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>48.12670030601736</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,22 +30666,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
-        <v>139.720497389951</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523504</v>
+        <v>157.4713590147629</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>204.5366575346158</v>
+        <v>195.4619197598049</v>
       </c>
       <c r="S44" t="n">
         <v>145.4435989995167</v>
       </c>
       <c r="T44" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,10 +30785,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
         <v>97.81846504080859</v>
@@ -30824,22 +30824,22 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>219.9574880523503</v>
+        <v>35.88525160045205</v>
       </c>
       <c r="V45" t="n">
-        <v>56.46976882455346</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W45" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30906,19 +30906,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>157.4713590147618</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147638</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.27288862760811</v>
+        <v>89.27288862760818</v>
       </c>
       <c r="K13" t="n">
-        <v>16.38655255901332</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L13" t="n">
-        <v>159.8424070004521</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647754</v>
+        <v>185.0385048647755</v>
       </c>
       <c r="N13" t="n">
         <v>191.6141181813325</v>
@@ -35583,10 +35583,10 @@
         <v>166.2235031628394</v>
       </c>
       <c r="P13" t="n">
-        <v>141.42174216044</v>
+        <v>75.58861859720712</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.07812288092092</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,31 +35802,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.272888627608</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>144.1748682564008</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L16" t="n">
-        <v>178.9653377472165</v>
+        <v>178.9653377472167</v>
       </c>
       <c r="M16" t="n">
-        <v>57.25018916738773</v>
+        <v>127.4001470482291</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813323</v>
+        <v>191.6141181813325</v>
       </c>
       <c r="O16" t="n">
-        <v>140.3343285443449</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>141.4217421604398</v>
+        <v>141.42174216044</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092079</v>
+        <v>81.07812288092099</v>
       </c>
       <c r="R16" t="n">
-        <v>6.76624387173193</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.14835189617794e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546202</v>
+        <v>12.22463163546169</v>
       </c>
       <c r="J26" t="n">
-        <v>55.7494205620844</v>
+        <v>170.8895739217707</v>
       </c>
       <c r="K26" t="n">
-        <v>574.0905243382717</v>
+        <v>249.9451117671067</v>
       </c>
       <c r="L26" t="n">
         <v>204.5119781014415</v>
       </c>
       <c r="M26" t="n">
-        <v>374.6884649886691</v>
+        <v>784.2094129550526</v>
       </c>
       <c r="N26" t="n">
-        <v>383.5486405241033</v>
+        <v>705.7554115764009</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644257</v>
+        <v>423.5776638092825</v>
       </c>
       <c r="P26" t="n">
-        <v>606.9072235799508</v>
+        <v>285.1085154084678</v>
       </c>
       <c r="Q26" t="n">
-        <v>397.7842545631524</v>
+        <v>194.1199747555645</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5265689563798</v>
+        <v>74.81014908339702</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>110.2609676126304</v>
+        <v>110.2609676126301</v>
       </c>
       <c r="K28" t="n">
-        <v>156.3551521935241</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L28" t="n">
-        <v>51.17702204982899</v>
+        <v>166.3171754095153</v>
       </c>
       <c r="M28" t="n">
-        <v>172.3903425270743</v>
+        <v>172.390342527074</v>
       </c>
       <c r="N28" t="n">
-        <v>178.9659558436314</v>
+        <v>107.9426274361736</v>
       </c>
       <c r="O28" t="n">
-        <v>153.5753408251383</v>
+        <v>316.6170071910204</v>
       </c>
       <c r="P28" t="n">
-        <v>263.78014313678</v>
+        <v>261.9332098309383</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.7729189209713</v>
+        <v>68.42996054321955</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546209</v>
+        <v>12.2246316354618</v>
       </c>
       <c r="J29" t="n">
-        <v>170.8895739217711</v>
+        <v>170.8895739217708</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9451117671071</v>
+        <v>249.9451117671068</v>
       </c>
       <c r="L29" t="n">
-        <v>683.3425107068294</v>
+        <v>673.3201973889383</v>
       </c>
       <c r="M29" t="n">
-        <v>745.466332933516</v>
+        <v>374.6884649886689</v>
       </c>
       <c r="N29" t="n">
-        <v>268.4084871644167</v>
+        <v>383.5486405241031</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1207157644258</v>
+        <v>620.7807436674844</v>
       </c>
       <c r="P29" t="n">
-        <v>285.1085154084682</v>
+        <v>285.108515408468</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555649</v>
+        <v>194.1199747555646</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5265689563799</v>
+        <v>140.5265689563796</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>76.62472628990687</v>
       </c>
       <c r="K31" t="n">
-        <v>123.1303189036658</v>
+        <v>227.8898848640759</v>
       </c>
       <c r="L31" t="n">
-        <v>166.3171754095157</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M31" t="n">
-        <v>57.25018916738773</v>
+        <v>235.7598500768334</v>
       </c>
       <c r="N31" t="n">
-        <v>350.7836726880932</v>
+        <v>178.9659558436312</v>
       </c>
       <c r="O31" t="n">
-        <v>316.6170071910209</v>
+        <v>90.18216207779336</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7495192066748</v>
+        <v>128.7735798227387</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.42996054321995</v>
+        <v>68.42996054321966</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546203</v>
+        <v>12.22463163546172</v>
       </c>
       <c r="J32" t="n">
-        <v>339.9861890938448</v>
+        <v>170.8895739217707</v>
       </c>
       <c r="K32" t="n">
-        <v>216.5792259525551</v>
+        <v>249.9451117671067</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611281</v>
+        <v>319.6521314611279</v>
       </c>
       <c r="M32" t="n">
-        <v>374.6884649886691</v>
+        <v>374.6884649886688</v>
       </c>
       <c r="N32" t="n">
-        <v>383.5486405241033</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1207157644257</v>
+        <v>735.9208970271707</v>
       </c>
       <c r="P32" t="n">
-        <v>606.9072235799508</v>
+        <v>606.9072235799505</v>
       </c>
       <c r="Q32" t="n">
-        <v>406.4349654154695</v>
+        <v>251.3757481085857</v>
       </c>
       <c r="R32" t="n">
-        <v>90.01023459833243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>110.2609676126301</v>
       </c>
       <c r="K34" t="n">
-        <v>123.1303189036658</v>
+        <v>131.5267059186996</v>
       </c>
       <c r="L34" t="n">
         <v>213.6517235913834</v>
       </c>
       <c r="M34" t="n">
-        <v>235.7598500768334</v>
+        <v>172.390342527074</v>
       </c>
       <c r="N34" t="n">
-        <v>235.6435193284066</v>
+        <v>310.0991828119201</v>
       </c>
       <c r="O34" t="n">
-        <v>201.4768538313342</v>
+        <v>153.575340825138</v>
       </c>
       <c r="P34" t="n">
-        <v>148.6399897770934</v>
+        <v>128.7735798227386</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.97558760086211</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>117.0419663281259</v>
+        <v>18.03250898274379</v>
       </c>
       <c r="J35" t="n">
         <v>55.7494205620844</v>
@@ -37327,13 +37327,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R35" t="n">
-        <v>80.61802643067223</v>
+        <v>179.6274837760608</v>
       </c>
       <c r="S35" t="n">
-        <v>74.51388905283383</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T35" t="n">
-        <v>9.074737774819456</v>
+        <v>9.074737774819029</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>18.03250898273769</v>
+        <v>18.03250898274469</v>
       </c>
       <c r="J38" t="n">
         <v>55.7494205620844</v>
@@ -37564,13 +37564,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R38" t="n">
-        <v>179.6274837760612</v>
+        <v>179.6274837760608</v>
       </c>
       <c r="S38" t="n">
-        <v>74.51388905283383</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T38" t="n">
-        <v>9.074737774819456</v>
+        <v>9.074737774819029</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>117.0419663281258</v>
+        <v>117.0419663281255</v>
       </c>
       <c r="J41" t="n">
         <v>55.7494205620844</v>
@@ -37801,13 +37801,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
-        <v>80.61802643067315</v>
+        <v>80.61802643068005</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283375</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T41" t="n">
-        <v>9.07473777481937</v>
+        <v>9.074737774819029</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.0419663281257</v>
+        <v>117.0419663281253</v>
       </c>
       <c r="J44" t="n">
         <v>55.7494205620844</v>
@@ -38038,13 +38038,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R44" t="n">
-        <v>164.2066532583266</v>
+        <v>155.1319154835157</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.074737774818802</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
